--- a/testcafe_bootcamp_testcases.xlsx
+++ b/testcafe_bootcamp_testcases.xlsx
@@ -5,14 +5,16 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Home Tests - Home Tests" sheetId="1" r:id="rId4"/>
+    <sheet name="Home Tests" sheetId="1" r:id="rId4"/>
     <sheet name="Account Tests" sheetId="2" r:id="rId5"/>
+    <sheet name="Buy Tests - Buy Tests" sheetId="3" r:id="rId6"/>
+    <sheet name="Product Lis Tests - Product Lis" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>Home Tests</t>
   </si>
@@ -64,10 +66,327 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color indexed="18"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>http://automationpractice.com/index.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="18"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color indexed="19"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>'</t>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to home page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">2. Verify the following elements are visible
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Discount top banner
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Contact us link
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Contact number
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Sign in link
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Home logo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Search box with search button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Cart button</t>
+    </r>
+  </si>
+  <si>
+    <t>2. All elements are visible</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>TC-102</t>
+  </si>
+  <si>
+    <t>Content elements are displayed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to home page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">2. Verify the following elements are visible
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Top content slider
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Fixed offers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Popular tab 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Best sellers tab
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Sections image grid</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-103</t>
+  </si>
+  <si>
+    <t>Footer elements are displayed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to home page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">2. Verify the following elements are visible
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Facebook follow block
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Newsletter email with button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Store sections
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Information block</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-104</t>
+  </si>
+  <si>
+    <t>Swap to best sellers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Go to home page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Verify that default tab is Popular
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Click on Best Sellers tab</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Best sellers is active, Popular tab is inactive</t>
+  </si>
+  <si>
+    <t>TC-105</t>
+  </si>
+  <si>
+    <t>Facebook social</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Go to home page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Click on Facebook icon in footer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">2. Browser should go to Facebook group </t>
     </r>
     <r>
       <rPr>
@@ -76,250 +395,22 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>http://automationpractice.com/index.php</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="19"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="20"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">1. Go to home page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">2. Verify the following elements are visible
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Discount top banner
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Contact us link
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Contact number
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Sign in link
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Home logo
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Search box with search button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Cart button</t>
-    </r>
-  </si>
-  <si>
-    <t>2. All elements are visible</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>TC-102</t>
-  </si>
-  <si>
-    <t>Content elements are displayed</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">1. Go to home page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">2. Verify the following elements are visible
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Top content slider
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Fixed offers
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Popular tab 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Best sellers tab
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Sections image grid</t>
-    </r>
-  </si>
-  <si>
-    <t>TC-103</t>
-  </si>
-  <si>
-    <t>Footer elements are displayed</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">1. Go to home page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">2. Verify the following elements are visible
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Facebook follow block
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Newsletter email with button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Store sections
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Information block</t>
-    </r>
-  </si>
-  <si>
-    <t>TC-104</t>
-  </si>
-  <si>
-    <t>Swap to best sellers</t>
+      <t>facebook.com/groups/525066904174158</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> or login with a redirection to this url</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-106</t>
+  </si>
+  <si>
+    <t>Twitter social</t>
   </si>
   <si>
     <r>
@@ -337,26 +428,17 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">Verify that default tab is Popular
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Click on Best Sellers tab</t>
-    </r>
-  </si>
-  <si>
-    <t>3. Best sellers is active, Popular tab is inactive</t>
-  </si>
-  <si>
-    <t>TC-105</t>
-  </si>
-  <si>
-    <t>Facebook social</t>
+      <t>Click on Twitter icon in footer</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Browser should go to Twitter page twitter.com/seleniumfrmwrk or login with a redirection to this url</t>
+  </si>
+  <si>
+    <t>TC-107</t>
+  </si>
+  <si>
+    <t>Youtube social</t>
   </si>
   <si>
     <r>
@@ -374,41 +456,17 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>Click on Facebook icon in footer</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">2. Browser should go to Facebook group </t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>facebook.com/groups/525066904174158</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve"> or login with a redirection to this url</t>
-    </r>
-  </si>
-  <si>
-    <t>TC-106</t>
-  </si>
-  <si>
-    <t>Twitter social</t>
+      <t>Click on Youtube icon in footer</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Browser should go to Youtube page /channel/UCHl59sI3SRjQ-qPcTrgt0tA or login with a redirection to this url</t>
+  </si>
+  <si>
+    <t>TC-108</t>
+  </si>
+  <si>
+    <t>Google+ social</t>
   </si>
   <si>
     <r>
@@ -426,62 +484,6 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>Click on Twitter icon in footer</t>
-    </r>
-  </si>
-  <si>
-    <t>2. Browser should go to Twitter page twitter.com/seleniumfrmwrk or login with a redirection to this url</t>
-  </si>
-  <si>
-    <t>TC-107</t>
-  </si>
-  <si>
-    <t>Youtube social</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Go to home page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Click on Youtube icon in footer</t>
-    </r>
-  </si>
-  <si>
-    <t>2. Browser should go to Youtube page /channel/UCHl59sI3SRjQ-qPcTrgt0tA or login with a redirection to this url</t>
-  </si>
-  <si>
-    <t>TC-108</t>
-  </si>
-  <si>
-    <t>Google+ social</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Go to home page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
       <t>Click on Google icon in footer</t>
     </r>
   </si>
@@ -495,7 +497,7 @@
     <t>FL-2 - Google + url is different than expected</t>
   </si>
   <si>
-    <t>Table 1</t>
+    <t>Account Tests</t>
   </si>
   <si>
     <t>TC-201</t>
@@ -541,32 +543,32 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color indexed="18"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>http://automationpractice.com/index.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="18"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color indexed="19"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>http://automationpractice.com/index.php</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="19"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="20"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t xml:space="preserve"> 
@@ -755,6 +757,322 @@
   </si>
   <si>
     <t>3. An error should prevent user to advance saying “Invalid email address”</t>
+  </si>
+  <si>
+    <t>Buy Tests</t>
+  </si>
+  <si>
+    <t>TC-301</t>
+  </si>
+  <si>
+    <t>Buy something</t>
+  </si>
+  <si>
+    <t>1. Click on sign in link
+2. Enter valid credentials and log in
+3. Return to home page
+4. Hover on any item
+5. Add it to cart
+6. Click on Proceed to Checkout button
+7. Click on Proceed to Checkout button
+8. Check Agree on terms on a conditions box
+9. Click on Proceed to checkout button
+10. Click on Any payment method
+11. Click on confirm my order</t>
+  </si>
+  <si>
+    <t>5. Item is dded to cart summary
+6. Browser advances to Addresses page
+7. Browser advances to Shipping page
+8. Browser advances to Payment page
+9. Browser advances to Shop Summary page
+10. Order confirmation page is shown</t>
+  </si>
+  <si>
+    <t>TC-302</t>
+  </si>
+  <si>
+    <t>Buy something, don’t agree terms and conditions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Chrome installed,firefox 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Already on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="18"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>http://automationpractice.com/index.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="18"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="19"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">1. Click on sign in link
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">2. Enter valid credentials and log in
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">3. Return to home page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">4. Hover on any item
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">5. Add it to cart
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">6. Click on Proceed to Checkout button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">7. Click on Proceed to Checkout button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>8. Click on Proceed to checkout button</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Item is dded to cart summary
+6. Browser advances to Addresses page
+7. Browser advances to Shipping page
+8. A fancy error oh lala should appear</t>
+  </si>
+  <si>
+    <t>Product List Tests</t>
+  </si>
+  <si>
+    <t>TC-401</t>
+  </si>
+  <si>
+    <t>Search a product</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Enter any search query in the search box
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Click on the search button</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Search query should appear as in the results column along with the results</t>
+  </si>
+  <si>
+    <t>TC-402</t>
+  </si>
+  <si>
+    <t>Sort by name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Enter any search query in the search box
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Click on the search button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Check the first elements’s name and next elements
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Click on the Set dropdown and select by Name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Verify the elements order by name</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Elements order are random
+4. Results are reordered
+5. All names are in alphabetical sequence </t>
+  </si>
+  <si>
+    <t>TC-403</t>
+  </si>
+  <si>
+    <t>Sort by price</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Enter any search query in the search box
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Click on the search button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Check the first elements’s price and next elements
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Click on the Set dropdown and select by Price: lower to highest
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Verify the elements order by price: lowest to highest</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Elements order are random
+4. Results are reordered
+5. All names are in a numerical ascending order</t>
+  </si>
+  <si>
+    <t>FL-2 - Discount is not consider when sorting</t>
   </si>
 </sst>
 </file>
@@ -764,7 +1082,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -776,7 +1094,29 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="18"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -787,23 +1127,12 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="20"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -812,18 +1141,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="18"/>
+        <fgColor indexed="20"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -833,28 +1174,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -863,52 +1189,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -936,63 +1217,467 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="21"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="21"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="21"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="21"/>
+      </right>
+      <top style="thin">
+        <color indexed="21"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="24"/>
+      </right>
+      <top style="thin">
+        <color indexed="24"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="24"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="24"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="24"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="24"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="24"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="26"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="26"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="fffefffe"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="fffefffe"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="ff000000"/>
@@ -1094,18 +1779,24 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffe0e0e0"/>
       <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdddddd"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="e5afe489"/>
-      <rgbColor rgb="e5ff9781"/>
-      <rgbColor rgb="e5ffd38a"/>
+      <rgbColor rgb="ffafe489"/>
+      <rgbColor rgb="ffff9781"/>
+      <rgbColor rgb="ffffd38a"/>
       <rgbColor rgb="ff5e5e5e"/>
       <rgbColor rgb="fffefffe"/>
-      <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff2aa198"/>
       <rgbColor rgb="ffbbbbbb"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff3f3f3f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1122,10 +1813,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -1302,11 +1993,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1315,7 +2009,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1330,19 +2024,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1590,12 +2284,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1886,7 +2580,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2164,21 +2858,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G21"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.14844" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.3359" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.4375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.8828" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.1953" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28906" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.0156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42969" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.4531" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.4922" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40" style="1" customWidth="1"/>
     <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2186,310 +2878,211 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="116.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" ht="92.05" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="A4" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="B4" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="D4" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="E4" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="F4" t="s" s="10">
+      <c r="F4" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" ht="80.05" customHeight="1">
-      <c r="A5" t="s" s="8">
+      <c r="A5" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="B5" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="C5" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="D5" t="s" s="10">
+      <c r="D5" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="10">
+      <c r="E5" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="F5" t="s" s="10">
+      <c r="F5" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" ht="44.05" customHeight="1">
-      <c r="A6" t="s" s="8">
+      <c r="A6" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B6" t="s" s="9">
+      <c r="B6" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="10">
+      <c r="C6" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="D6" t="s" s="10">
+      <c r="D6" t="s" s="9">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="10">
+      <c r="E6" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="F6" t="s" s="10">
+      <c r="F6" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" ht="44.05" customHeight="1">
-      <c r="A7" t="s" s="8">
+      <c r="A7" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="B7" t="s" s="9">
+      <c r="B7" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="C7" t="s" s="10">
+      <c r="C7" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="D7" t="s" s="10">
+      <c r="D7" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="E7" t="s" s="10">
+      <c r="E7" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="F7" t="s" s="10">
+      <c r="F7" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" ht="44.05" customHeight="1">
-      <c r="A8" t="s" s="8">
+      <c r="A8" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="B8" t="s" s="9">
+      <c r="B8" t="s" s="8">
         <v>29</v>
       </c>
-      <c r="C8" t="s" s="10">
+      <c r="C8" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="D8" t="s" s="10">
+      <c r="D8" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="E8" t="s" s="10">
+      <c r="E8" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="F8" t="s" s="10">
+      <c r="F8" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" ht="44.05" customHeight="1">
-      <c r="A9" t="s" s="8">
+      <c r="A9" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="B9" t="s" s="9">
+      <c r="B9" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="C9" t="s" s="10">
+      <c r="C9" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="D9" t="s" s="10">
+      <c r="D9" t="s" s="9">
         <v>34</v>
       </c>
-      <c r="E9" t="s" s="10">
+      <c r="E9" t="s" s="9">
         <v>35</v>
       </c>
-      <c r="F9" t="s" s="10">
+      <c r="F9" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" ht="44.05" customHeight="1">
-      <c r="A10" t="s" s="8">
+      <c r="A10" t="s" s="10">
         <v>36</v>
       </c>
-      <c r="B10" t="s" s="9">
+      <c r="B10" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="C10" t="s" s="10">
+      <c r="C10" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="D10" t="s" s="10">
+      <c r="D10" t="s" s="9">
         <v>38</v>
       </c>
-      <c r="E10" t="s" s="10">
+      <c r="E10" t="s" s="9">
         <v>39</v>
       </c>
-      <c r="F10" t="s" s="10">
+      <c r="F10" t="s" s="9">
         <v>40</v>
       </c>
-      <c r="G10" t="s" s="10">
+      <c r="G10" t="s" s="9">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:F21">
+  <conditionalFormatting sqref="F2:F10">
     <cfRule type="containsText" dxfId="0" priority="1" stopIfTrue="1" text="pass">
       <formula>NOT(ISERROR(FIND(UPPER("pass"),UPPER(F2))))</formula>
       <formula>"pass"</formula>
@@ -2508,15 +3101,15 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" location="" tooltip="" display="http://automationpractice.com/index.php"/>
-    <hyperlink ref="C4" r:id="rId2" location="" tooltip="" display="http://automationpractice.com/index.php"/>
-    <hyperlink ref="C5" r:id="rId3" location="" tooltip="" display="http://automationpractice.com/index.php"/>
-    <hyperlink ref="C6" r:id="rId4" location="" tooltip="" display="http://automationpractice.com/index.php"/>
-    <hyperlink ref="C7" r:id="rId5" location="" tooltip="" display="http://automationpractice.com/index.php"/>
-    <hyperlink ref="E7" r:id="rId6" location="" tooltip="" display="facebook.com/groups/525066904174158"/>
-    <hyperlink ref="C8" r:id="rId7" location="" tooltip="" display="http://automationpractice.com/index.php"/>
-    <hyperlink ref="C9" r:id="rId8" location="" tooltip="" display="http://automationpractice.com/index.php"/>
-    <hyperlink ref="C10" r:id="rId9" location="" tooltip="" display="http://automationpractice.com/index.php"/>
+    <hyperlink ref="C3" r:id="rId1" location="" tooltip="" display="Chrome installed,firefox installed&#10;Already on 'http://automationpractice.com/index.php'&#10;"/>
+    <hyperlink ref="C4" r:id="rId2" location="" tooltip="" display="Chrome installed,firefox installed&#10;Already on 'http://automationpractice.com/index.php'&#10;"/>
+    <hyperlink ref="C5" r:id="rId3" location="" tooltip="" display="Chrome installed,firefox installed&#10;Already on 'http://automationpractice.com/index.php'&#10;"/>
+    <hyperlink ref="C6" r:id="rId4" location="" tooltip="" display="Chrome installed,firefox installed&#10;Already on 'http://automationpractice.com/index.php'&#10;"/>
+    <hyperlink ref="C7" r:id="rId5" location="" tooltip="" display="Chrome installed,firefox installed&#10;Already on 'http://automationpractice.com/index.php'&#10;"/>
+    <hyperlink ref="E7" r:id="rId6" location="" tooltip="" display="2. Browser should go to Facebook group facebook.com/groups/525066904174158 or login with a redirection to this url"/>
+    <hyperlink ref="C8" r:id="rId7" location="" tooltip="" display="Chrome installed,firefox installed&#10;Already on 'http://automationpractice.com/index.php'&#10;"/>
+    <hyperlink ref="C9" r:id="rId8" location="" tooltip="" display="Chrome installed,firefox installed&#10;Already on 'http://automationpractice.com/index.php'&#10;"/>
+    <hyperlink ref="C10" r:id="rId9" location="" tooltip="" display="Chrome installed,firefox installed&#10;Already on 'http://automationpractice.com/index.php'&#10;"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2531,306 +3124,187 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G21"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.26562" style="14" customWidth="1"/>
-    <col min="2" max="2" width="40.125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="47.6953" style="14" customWidth="1"/>
-    <col min="4" max="4" width="41.3359" style="14" customWidth="1"/>
-    <col min="5" max="5" width="36.1094" style="14" customWidth="1"/>
-    <col min="6" max="6" width="10.3125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="28.5469" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="14" customWidth="1"/>
+    <col min="1" max="1" width="8.38281" style="11" customWidth="1"/>
+    <col min="2" max="2" width="33.4375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="41.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="38.3516" style="11" customWidth="1"/>
+    <col min="5" max="5" width="38.4375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.0625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="68.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="16">
         <v>43</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="17">
         <v>44</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" t="s" s="18">
         <v>45</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" t="s" s="18">
         <v>46</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" ht="56.05" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="A4" t="s" s="20">
         <v>47</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="B4" t="s" s="21">
         <v>48</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" t="s" s="22">
         <v>49</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="D4" t="s" s="22">
         <v>50</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="E4" t="s" s="22">
         <v>51</v>
       </c>
-      <c r="F4" t="s" s="10">
+      <c r="F4" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" ht="56.05" customHeight="1">
-      <c r="A5" t="s" s="8">
+      <c r="A5" t="s" s="20">
         <v>52</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="B5" t="s" s="21">
         <v>53</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="C5" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="D5" t="s" s="10">
+      <c r="D5" t="s" s="22">
         <v>54</v>
       </c>
-      <c r="E5" t="s" s="10">
+      <c r="E5" t="s" s="22">
         <v>55</v>
       </c>
-      <c r="F5" t="s" s="10">
+      <c r="F5" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" ht="44.05" customHeight="1">
-      <c r="A6" t="s" s="8">
+      <c r="A6" t="s" s="20">
         <v>56</v>
       </c>
-      <c r="B6" t="s" s="9">
+      <c r="B6" t="s" s="21">
         <v>57</v>
       </c>
-      <c r="C6" t="s" s="10">
+      <c r="C6" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="D6" t="s" s="10">
+      <c r="D6" t="s" s="22">
         <v>58</v>
       </c>
-      <c r="E6" t="s" s="10">
+      <c r="E6" t="s" s="22">
         <v>59</v>
       </c>
-      <c r="F6" t="s" s="10">
+      <c r="F6" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" ht="44.05" customHeight="1">
-      <c r="A7" t="s" s="8">
+      <c r="A7" t="s" s="20">
         <v>60</v>
       </c>
-      <c r="B7" t="s" s="9">
+      <c r="B7" t="s" s="21">
         <v>61</v>
       </c>
-      <c r="C7" t="s" s="10">
+      <c r="C7" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="D7" t="s" s="10">
+      <c r="D7" t="s" s="22">
         <v>62</v>
       </c>
-      <c r="E7" t="s" s="10">
+      <c r="E7" t="s" s="22">
         <v>63</v>
       </c>
-      <c r="F7" t="s" s="10">
+      <c r="F7" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" ht="44.05" customHeight="1">
-      <c r="A8" t="s" s="8">
+      <c r="A8" t="s" s="20">
         <v>64</v>
       </c>
-      <c r="B8" t="s" s="9">
+      <c r="B8" t="s" s="21">
         <v>65</v>
       </c>
-      <c r="C8" t="s" s="10">
+      <c r="C8" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="D8" t="s" s="10">
+      <c r="D8" t="s" s="22">
         <v>66</v>
       </c>
-      <c r="E8" t="s" s="10">
+      <c r="E8" t="s" s="22">
         <v>67</v>
       </c>
-      <c r="F8" t="s" s="10">
+      <c r="F8" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="G8" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:F21">
+  <conditionalFormatting sqref="F2:F8">
     <cfRule type="containsText" dxfId="4" priority="1" stopIfTrue="1" text="pass">
       <formula>NOT(ISERROR(FIND(UPPER("pass"),UPPER(F2))))</formula>
       <formula>"pass"</formula>
@@ -2849,12 +3323,298 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" location="" tooltip="" display="http://automationpractice.com/index.php"/>
-    <hyperlink ref="C4" r:id="rId2" location="" tooltip="" display="http://automationpractice.com/index.php"/>
-    <hyperlink ref="C5" r:id="rId3" location="" tooltip="" display="http://automationpractice.com/index.php"/>
-    <hyperlink ref="C6" r:id="rId4" location="" tooltip="" display="http://automationpractice.com/index.php"/>
-    <hyperlink ref="C7" r:id="rId5" location="" tooltip="" display="http://automationpractice.com/index.php"/>
-    <hyperlink ref="C8" r:id="rId6" location="" tooltip="" display="http://automationpractice.com/index.php"/>
+    <hyperlink ref="C3" r:id="rId1" location="" tooltip="" display="Chrome installed,firefox installed&#10;Already on 'http://automationpractice.com/index.php'&#10;"/>
+    <hyperlink ref="C4" r:id="rId2" location="" tooltip="" display="Chrome installed,firefox &#10;Already on 'http://automationpractice.com/index.php' &#10;TC-201 should’ve passed "/>
+    <hyperlink ref="C5" r:id="rId3" location="" tooltip="" display="Chrome installed,firefox installed&#10;Already on 'http://automationpractice.com/index.php'&#10;"/>
+    <hyperlink ref="C6" r:id="rId4" location="" tooltip="" display="Chrome installed,firefox installed&#10;Already on 'http://automationpractice.com/index.php'&#10;"/>
+    <hyperlink ref="C7" r:id="rId5" location="" tooltip="" display="Chrome installed,firefox installed&#10;Already on 'http://automationpractice.com/index.php'&#10;"/>
+    <hyperlink ref="C8" r:id="rId6" location="" tooltip="" display="Chrome installed,firefox installed&#10;Already on 'http://automationpractice.com/index.php'&#10;"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.40625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="33.3594" style="24" customWidth="1"/>
+    <col min="3" max="3" width="41.7734" style="24" customWidth="1"/>
+    <col min="4" max="5" width="38.4219" style="24" customWidth="1"/>
+    <col min="6" max="6" width="9.85156" style="24" customWidth="1"/>
+    <col min="7" max="7" width="33.3906" style="24" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.6" customHeight="1">
+      <c r="A1" t="s" s="25">
+        <v>68</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" ht="14.7" customHeight="1">
+      <c r="A2" t="s" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="15">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="15">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="15">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="15">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="134.7" customHeight="1">
+      <c r="A3" t="s" s="16">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s" s="26">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s" s="27">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="27">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s" s="27">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s" s="27">
+        <v>13</v>
+      </c>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" ht="98.7" customHeight="1">
+      <c r="A4" t="s" s="20">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s" s="29">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s" s="30">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s" s="30">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s" s="30">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s" s="30">
+        <v>13</v>
+      </c>
+      <c r="G4" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F2:F4">
+    <cfRule type="containsText" dxfId="8" priority="1" stopIfTrue="1" text="pass">
+      <formula>NOT(ISERROR(FIND(UPPER("pass"),UPPER(F2))))</formula>
+      <formula>"pass"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="2" stopIfTrue="1" text="fail">
+      <formula>NOT(ISERROR(FIND(UPPER("fail"),UPPER(F2))))</formula>
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="3" stopIfTrue="1" text="warn">
+      <formula>NOT(ISERROR(FIND(UPPER("warn"),UPPER(F2))))</formula>
+      <formula>"warn"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="4" stopIfTrue="1" text="blocked">
+      <formula>NOT(ISERROR(FIND(UPPER("blocked"),UPPER(F2))))</formula>
+      <formula>"blocked"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" location="" tooltip="" display="Chrome installed,firefox installed&#10;Already on 'http://automationpractice.com/index.php'&#10;"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.42969" style="32" customWidth="1"/>
+    <col min="2" max="2" width="33.4766" style="32" customWidth="1"/>
+    <col min="3" max="3" width="41.6953" style="32" customWidth="1"/>
+    <col min="4" max="4" width="38.3438" style="32" customWidth="1"/>
+    <col min="5" max="5" width="38.3906" style="32" customWidth="1"/>
+    <col min="6" max="6" width="10.2031" style="32" customWidth="1"/>
+    <col min="7" max="7" width="33.4844" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.6" customHeight="1">
+      <c r="A1" t="s" s="25">
+        <v>78</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" ht="14.7" customHeight="1">
+      <c r="A2" t="s" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="15">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="15">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="15">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="15">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="38.7" customHeight="1">
+      <c r="A3" t="s" s="16">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s" s="26">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s" s="27">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="27">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s" s="27">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s" s="27">
+        <v>13</v>
+      </c>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" ht="74.7" customHeight="1">
+      <c r="A4" t="s" s="20">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s" s="29">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s" s="30">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s" s="30">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s" s="30">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s" s="30">
+        <v>13</v>
+      </c>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" ht="98.7" customHeight="1">
+      <c r="A5" t="s" s="33">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s" s="34">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s" s="35">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s" s="30">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s" s="30">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s" s="36">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s" s="37">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="containsText" dxfId="12" priority="1" stopIfTrue="1" text="pass">
+      <formula>NOT(ISERROR(FIND(UPPER("pass"),UPPER(F2))))</formula>
+      <formula>"pass"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="2" stopIfTrue="1" text="fail">
+      <formula>NOT(ISERROR(FIND(UPPER("fail"),UPPER(F2))))</formula>
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="3" stopIfTrue="1" text="warn">
+      <formula>NOT(ISERROR(FIND(UPPER("warn"),UPPER(F2))))</formula>
+      <formula>"warn"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="4" stopIfTrue="1" text="blocked">
+      <formula>NOT(ISERROR(FIND(UPPER("blocked"),UPPER(F2))))</formula>
+      <formula>"blocked"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" location="" tooltip="" display="Chrome installed,firefox installed&#10;Already on 'http://automationpractice.com/index.php'&#10;"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
